--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1684C3-5207-4518-A5F7-323168B39217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E55E7-C311-4EE7-A703-9FC7AE74E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -102,433 +113,436 @@
     <t>General Consultation Services</t>
   </si>
   <si>
-    <t xml:space="preserve">  clinic-service/general-consultation-services</t>
-  </si>
-  <si>
     <t>Medical Checkups</t>
   </si>
   <si>
-    <t xml:space="preserve">  clinic-service/medical-checkups</t>
-  </si>
-  <si>
     <t>Procedure Rooms</t>
   </si>
   <si>
-    <t xml:space="preserve">  clinic-service/procedure-rooms</t>
-  </si>
-  <si>
     <t>Accidents</t>
   </si>
   <si>
-    <t xml:space="preserve">  clinic-service/acccidents</t>
-  </si>
-  <si>
     <t>Reporting And Analytics</t>
   </si>
   <si>
-    <t xml:space="preserve">  clinic-service/reporting-and-analytics </t>
-  </si>
-  <si>
     <t>Queue Counters</t>
   </si>
   <si>
-    <t xml:space="preserve">  queue/queue-counters</t>
-  </si>
-  <si>
     <t>Queue Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">  queue/queue-displays</t>
-  </si>
-  <si>
     <t>Kiosk Departments</t>
   </si>
   <si>
-    <t xml:space="preserve">  queue/kiosk-departments</t>
-  </si>
-  <si>
     <t>Kiosk Configurations</t>
   </si>
   <si>
-    <t xml:space="preserve">  queue/kiosk-configurations</t>
-  </si>
-  <si>
     <t>BPJS Classifications</t>
   </si>
   <si>
-    <t xml:space="preserve">  bpjs/bpjs-classifications</t>
-  </si>
-  <si>
     <t>System Parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">  bpjs/system-parameters</t>
-  </si>
-  <si>
     <t>Physicians</t>
   </si>
   <si>
-    <t xml:space="preserve">  bpjs-integration/physicians</t>
-  </si>
-  <si>
     <t>Services</t>
   </si>
   <si>
-    <t xml:space="preserve">  bpjs-integration/services</t>
-  </si>
-  <si>
     <t>Medical Procedures</t>
   </si>
   <si>
-    <t xml:space="preserve">  bpjs-integration/medical-procedures</t>
-  </si>
-  <si>
     <t>Awareness</t>
   </si>
   <si>
-    <t xml:space="preserve">  bpjs-integration/awareness</t>
-  </si>
-  <si>
     <t>Diagnoses</t>
   </si>
   <si>
-    <t xml:space="preserve">  bpjs-integration/diagnoses</t>
-  </si>
-  <si>
     <t>Providers</t>
   </si>
   <si>
-    <t xml:space="preserve">  bpjs-integration/providers</t>
-  </si>
-  <si>
     <t>Allergies</t>
   </si>
   <si>
-    <t xml:space="preserve">  bpjs-integration/allergies</t>
-  </si>
-  <si>
     <t>Drugs</t>
   </si>
   <si>
-    <t xml:space="preserve">  bpjs-integration/drugs </t>
-  </si>
-  <si>
     <t>Patients</t>
   </si>
   <si>
-    <t xml:space="preserve">  patient/patients</t>
-  </si>
-  <si>
     <t>Family Relations</t>
   </si>
   <si>
-    <t xml:space="preserve">  patient/family-relations</t>
-  </si>
-  <si>
     <t>Insurance Policies</t>
   </si>
   <si>
-    <t xml:space="preserve">  patient/insurance-policies </t>
-  </si>
-  <si>
     <t>Prescriptions</t>
   </si>
   <si>
-    <t xml:space="preserve">  pharmacy/presciptions</t>
-  </si>
-  <si>
     <t>Medicament Groups</t>
   </si>
   <si>
-    <t xml:space="preserve">  pharmacy/medicament-groups</t>
-  </si>
-  <si>
     <t>Signas</t>
   </si>
   <si>
-    <t xml:space="preserve">  pharmacy/signas</t>
-  </si>
-  <si>
     <t>Medicine Dosages</t>
   </si>
   <si>
-    <t xml:space="preserve">  pharmacy/medicine-dosages</t>
-  </si>
-  <si>
     <t>Active Components</t>
   </si>
   <si>
-    <t xml:space="preserve">  pharmacy/active-components</t>
-  </si>
-  <si>
     <t>Drug Forms</t>
   </si>
   <si>
-    <t xml:space="preserve">  pharmacy/drug-forms</t>
-  </si>
-  <si>
     <t>Drug Routes</t>
   </si>
   <si>
-    <t xml:space="preserve">  pharmacy/drug-routes</t>
-  </si>
-  <si>
     <t>Reporting Pharmacy</t>
   </si>
   <si>
-    <t xml:space="preserve">  pharmacy/reporting-pharmacy </t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
-    <t xml:space="preserve">  inventory/products</t>
-  </si>
-  <si>
     <t>Product Categories</t>
   </si>
   <si>
-    <t xml:space="preserve">  inventory/product-categories</t>
-  </si>
-  <si>
     <t>Inventory Adjustments</t>
   </si>
   <si>
-    <t xml:space="preserve">  inventory/inventory-adjusments</t>
-  </si>
-  <si>
     <t>Internal Transfers</t>
   </si>
   <si>
-    <t xml:space="preserve">  inventory/internal-transfers</t>
-  </si>
-  <si>
     <t>Goods Receipts</t>
   </si>
   <si>
-    <t xml:space="preserve">  inventory/goods-receipts</t>
-  </si>
-  <si>
     <t>UOM Categories</t>
   </si>
   <si>
-    <t xml:space="preserve">  inventory/uom-categories</t>
-  </si>
-  <si>
     <t>UOMs</t>
   </si>
   <si>
-    <t xml:space="preserve">  inventory/uoms</t>
-  </si>
-  <si>
     <t>Locations</t>
   </si>
   <si>
-    <t xml:space="preserve">  inventory/locations</t>
-  </si>
-  <si>
     <t>Reporting Inventories</t>
   </si>
   <si>
-    <t xml:space="preserve">  inventory/reporting-inventories</t>
-  </si>
-  <si>
     <t>Employees</t>
   </si>
   <si>
-    <t xml:space="preserve">  employee/employees</t>
-  </si>
-  <si>
     <t>Sick Leave Managements</t>
   </si>
   <si>
-    <t xml:space="preserve">  employee/sick-leave-managements</t>
-  </si>
-  <si>
     <t>Claim Managements</t>
   </si>
   <si>
-    <t xml:space="preserve">  employee/claim-managements</t>
-  </si>
-  <si>
     <t>Departments</t>
   </si>
   <si>
-    <t xml:space="preserve">  employee/departments</t>
-  </si>
-  <si>
     <t>Job Positions</t>
   </si>
   <si>
-    <t xml:space="preserve">  employee/job-positions</t>
-  </si>
-  <si>
     <t>Practitioners</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/practitioners</t>
-  </si>
-  <si>
     <t>Doctor Schedules</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/doctor-schedules</t>
-  </si>
-  <si>
     <t>Doctor Schedule Slots</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/doctor-schedule-slots</t>
-  </si>
-  <si>
     <t>Insurances</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/insurances</t>
-  </si>
-  <si>
     <t>Specialities</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/specialities</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> medical/diagnoses</t>
-  </si>
-  <si>
     <t>Procedures</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/procedures</t>
-  </si>
-  <si>
     <t>Disease Categories</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/disease-categories</t>
-  </si>
-  <si>
     <t>Chronic Diagnoses</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/chronic-diagnoses</t>
-  </si>
-  <si>
     <t>Health Centers</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/health-centers</t>
-  </si>
-  <si>
     <t>Building And Locations</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/building-and-locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> medical/services</t>
-  </si>
-  <si>
     <t>Nursing Diagnoses</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/nursing-diagnoses</t>
-  </si>
-  <si>
     <t>Lab Tests</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/lab-tests</t>
-  </si>
-  <si>
     <t>Sample Types</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/sample-types</t>
-  </si>
-  <si>
     <t>UOM Labs</t>
   </si>
   <si>
-    <t xml:space="preserve"> medical/uom-labs</t>
-  </si>
-  <si>
     <t>Users</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/users</t>
-  </si>
-  <si>
     <t>Groups</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/groups</t>
-  </si>
-  <si>
     <t>Menus</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/menus</t>
-  </si>
-  <si>
     <t>Email Templates</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/email-templates</t>
-  </si>
-  <si>
     <t>Email Settings</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/email-settings</t>
-  </si>
-  <si>
     <t>Companies</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/companies</t>
-  </si>
-  <si>
     <t>Countries</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/countries</t>
-  </si>
-  <si>
     <t>Provinces</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/provinces</t>
-  </si>
-  <si>
     <t>Cities</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/cities</t>
-  </si>
-  <si>
     <t>Districts</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/districts</t>
-  </si>
-  <si>
     <t>Sub Districts</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/sub-districts</t>
-  </si>
-  <si>
     <t>Religions</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/religions</t>
-  </si>
-  <si>
     <t>Occupationals</t>
   </si>
   <si>
-    <t xml:space="preserve"> configuration/occupationals</t>
+    <t>clinic-service/general-consultation-services</t>
+  </si>
+  <si>
+    <t>clinic-service/medical-checkups</t>
+  </si>
+  <si>
+    <t>clinic-service/procedure-rooms</t>
+  </si>
+  <si>
+    <t>clinic-service/acccidents</t>
+  </si>
+  <si>
+    <t>clinic-service/reporting-and-analytics</t>
+  </si>
+  <si>
+    <t>queue/queue-counters</t>
+  </si>
+  <si>
+    <t>queue/queue-displays</t>
+  </si>
+  <si>
+    <t>queue/kiosk-departments</t>
+  </si>
+  <si>
+    <t>queue/kiosk-configurations</t>
+  </si>
+  <si>
+    <t>bpjs/bpjs-classifications</t>
+  </si>
+  <si>
+    <t>bpjs/system-parameters</t>
+  </si>
+  <si>
+    <t>bpjs-integration/physicians</t>
+  </si>
+  <si>
+    <t>bpjs-integration/services</t>
+  </si>
+  <si>
+    <t>bpjs-integration/medical-procedures</t>
+  </si>
+  <si>
+    <t>bpjs-integration/awareness</t>
+  </si>
+  <si>
+    <t>bpjs-integration/diagnoses</t>
+  </si>
+  <si>
+    <t>bpjs-integration/providers</t>
+  </si>
+  <si>
+    <t>bpjs-integration/allergies</t>
+  </si>
+  <si>
+    <t>bpjs-integration/drugs</t>
+  </si>
+  <si>
+    <t>patient/patients</t>
+  </si>
+  <si>
+    <t>patient/family-relations</t>
+  </si>
+  <si>
+    <t>patient/insurance-policies</t>
+  </si>
+  <si>
+    <t>pharmacy/presciptions</t>
+  </si>
+  <si>
+    <t>pharmacy/medicament-groups</t>
+  </si>
+  <si>
+    <t>pharmacy/signas</t>
+  </si>
+  <si>
+    <t>pharmacy/medicine-dosages</t>
+  </si>
+  <si>
+    <t>pharmacy/active-components</t>
+  </si>
+  <si>
+    <t>pharmacy/drug-forms</t>
+  </si>
+  <si>
+    <t>pharmacy/drug-routes</t>
+  </si>
+  <si>
+    <t>pharmacy/reporting-pharmacy</t>
+  </si>
+  <si>
+    <t>inventory/products</t>
+  </si>
+  <si>
+    <t>inventory/product-categories</t>
+  </si>
+  <si>
+    <t>inventory/inventory-adjusments</t>
+  </si>
+  <si>
+    <t>inventory/internal-transfers</t>
+  </si>
+  <si>
+    <t>inventory/goods-receipts</t>
+  </si>
+  <si>
+    <t>inventory/uom-categories</t>
+  </si>
+  <si>
+    <t>inventory/uoms</t>
+  </si>
+  <si>
+    <t>inventory/locations</t>
+  </si>
+  <si>
+    <t>inventory/reporting-inventories</t>
+  </si>
+  <si>
+    <t>employee/employees</t>
+  </si>
+  <si>
+    <t>employee/sick-leave-managements</t>
+  </si>
+  <si>
+    <t>employee/claim-managements</t>
+  </si>
+  <si>
+    <t>employee/departments</t>
+  </si>
+  <si>
+    <t>employee/job-positions</t>
+  </si>
+  <si>
+    <t>medical/practitioners</t>
+  </si>
+  <si>
+    <t>medical/doctor-schedules</t>
+  </si>
+  <si>
+    <t>medical/doctor-schedule-slots</t>
+  </si>
+  <si>
+    <t>medical/insurances</t>
+  </si>
+  <si>
+    <t>medical/specialities</t>
+  </si>
+  <si>
+    <t>medical/diagnoses</t>
+  </si>
+  <si>
+    <t>medical/procedures</t>
+  </si>
+  <si>
+    <t>medical/disease-categories</t>
+  </si>
+  <si>
+    <t>medical/chronic-diagnoses</t>
+  </si>
+  <si>
+    <t>medical/health-centers</t>
+  </si>
+  <si>
+    <t>medical/building-and-locations</t>
+  </si>
+  <si>
+    <t>medical/services</t>
+  </si>
+  <si>
+    <t>medical/nursing-diagnoses</t>
+  </si>
+  <si>
+    <t>medical/lab-tests</t>
+  </si>
+  <si>
+    <t>medical/sample-types</t>
+  </si>
+  <si>
+    <t>configuration/users</t>
+  </si>
+  <si>
+    <t>configuration/groups</t>
+  </si>
+  <si>
+    <t>configuration/menus</t>
+  </si>
+  <si>
+    <t>configuration/email-templates</t>
+  </si>
+  <si>
+    <t>configuration/email-settings</t>
+  </si>
+  <si>
+    <t>configuration/companies</t>
+  </si>
+  <si>
+    <t>configuration/countries</t>
+  </si>
+  <si>
+    <t>configuration/provinces</t>
+  </si>
+  <si>
+    <t>configuration/cities</t>
+  </si>
+  <si>
+    <t>configuration/districts</t>
+  </si>
+  <si>
+    <t>configuration/sub-districts</t>
+  </si>
+  <si>
+    <t>configuration/religions</t>
+  </si>
+  <si>
+    <t>configuration/occupationals</t>
+  </si>
+  <si>
+    <t>medical/lab-uoms</t>
+  </si>
+  <si>
+    <t>Occupationals2</t>
   </si>
 </sst>
 </file>
@@ -615,7 +629,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E74" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E75" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
@@ -924,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,12 +981,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -981,12 +995,12 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -995,12 +1009,12 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1009,12 +1023,12 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1023,12 +1037,12 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1037,12 +1051,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1051,12 +1065,12 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1065,12 +1079,12 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1079,12 +1093,12 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1093,12 +1107,12 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1107,12 +1121,12 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1121,12 +1135,12 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1135,12 +1149,12 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1149,12 +1163,12 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1163,12 +1177,12 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1177,12 +1191,12 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1191,12 +1205,12 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1205,12 +1219,12 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1219,12 +1233,12 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1233,12 +1247,12 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1247,12 +1261,12 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1261,12 +1275,12 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1275,12 +1289,12 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1289,12 +1303,12 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1303,12 +1317,12 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1317,12 +1331,12 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1331,12 +1345,12 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1345,12 +1359,12 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1359,12 +1373,12 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1373,12 +1387,12 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1387,12 +1401,12 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1401,12 +1415,12 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -1415,12 +1429,12 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -1429,12 +1443,12 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -1443,12 +1457,12 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -1457,12 +1471,12 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -1471,12 +1485,12 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -1485,12 +1499,12 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -1499,12 +1513,12 @@
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -1513,12 +1527,12 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1527,12 +1541,12 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -1541,12 +1555,12 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -1555,12 +1569,12 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -1569,12 +1583,12 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -1583,12 +1597,12 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -1597,12 +1611,12 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -1611,12 +1625,12 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -1625,12 +1639,12 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -1639,12 +1653,12 @@
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -1653,12 +1667,12 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -1667,12 +1681,12 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
@@ -1681,12 +1695,12 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
@@ -1695,12 +1709,12 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
@@ -1709,12 +1723,12 @@
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
@@ -1723,12 +1737,12 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
@@ -1737,12 +1751,12 @@
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -1751,12 +1765,12 @@
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
@@ -1765,12 +1779,12 @@
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -1779,12 +1793,12 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
@@ -1793,12 +1807,12 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -1807,12 +1821,12 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -1821,12 +1835,12 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -1835,12 +1849,12 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -1849,12 +1863,12 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -1863,12 +1877,12 @@
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -1877,12 +1891,12 @@
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -1891,12 +1905,12 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -1905,12 +1919,12 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -1919,12 +1933,12 @@
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -1933,12 +1947,12 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -1947,12 +1961,12 @@
         <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -1966,7 +1980,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -1975,7 +1989,21 @@
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E55E7-C311-4EE7-A703-9FC7AE74E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05455869-951A-4A12-BBD1-221A356C156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -543,6 +543,12 @@
   </si>
   <si>
     <t>Occupationals2</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>medical/projects</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E75" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E76" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
@@ -938,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
         <v>158</v>
@@ -1812,189 +1818,189 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="D73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="D74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -2003,6 +2009,20 @@
         <v>13</v>
       </c>
       <c r="E75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05455869-951A-4A12-BBD1-221A356C156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DED633B-FDD1-4AB5-9330-C03942061467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="168">
   <si>
     <t>Name</t>
   </si>
@@ -549,6 +549,24 @@
   </si>
   <si>
     <t>medical/projects</t>
+  </si>
+  <si>
+    <t>patient/disease-history</t>
+  </si>
+  <si>
+    <t>Disease History</t>
+  </si>
+  <si>
+    <t>inventory/maintainance</t>
+  </si>
+  <si>
+    <t>inventory/maintainance-records</t>
+  </si>
+  <si>
+    <t>Maintenance Records</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
   </si>
 </sst>
 </file>
@@ -571,18 +589,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -612,11 +624,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +646,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E76" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E79" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
@@ -944,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,743 +1297,785 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>58</v>
+      <c r="A45" t="s">
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>59</v>
+      <c r="A46" t="s">
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>60</v>
+      <c r="A47" t="s">
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="D56">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="D58">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="D59">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="D62">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65">
         <v>17</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E65" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>73</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>77</v>
+      <c r="A67" t="s">
+        <v>74</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>78</v>
+      <c r="A68" t="s">
+        <v>75</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>79</v>
+      <c r="A69" t="s">
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>80</v>
+      <c r="A70" t="s">
+        <v>77</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>81</v>
+      <c r="A71" t="s">
+        <v>78</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>82</v>
+      <c r="A72" t="s">
+        <v>79</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>83</v>
+      <c r="A73" t="s">
+        <v>80</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>84</v>
+      <c r="A74" t="s">
+        <v>81</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>85</v>
+      <c r="A75" t="s">
+        <v>82</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="D75">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
       </c>
       <c r="D76">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78">
         <v>13</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DED633B-FDD1-4AB5-9330-C03942061467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B485C1-6044-4E2C-90ED-3DE59F845A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -567,6 +567,18 @@
   </si>
   <si>
     <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Telemedicine</t>
+  </si>
+  <si>
+    <t>Vaccination</t>
+  </si>
+  <si>
+    <t>clinic-service/telemedicines</t>
+  </si>
+  <si>
+    <t>clinic-service/vaccinations</t>
   </si>
 </sst>
 </file>
@@ -646,7 +658,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E79" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E81" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
@@ -955,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,7 +1043,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1040,12 +1052,12 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1054,1028 +1066,1056 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>58</v>
+      <c r="A48" t="s">
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>59</v>
+      <c r="A49" t="s">
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="D61">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="D62">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>71</v>
+      <c r="A63" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>72</v>
+      <c r="A64" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="D65">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="D74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
       </c>
       <c r="D76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>85</v>
+      <c r="A78" t="s">
+        <v>83</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
       </c>
       <c r="D78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
       </c>
       <c r="D79">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80">
         <v>13</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B485C1-6044-4E2C-90ED-3DE59F845A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D30E8-85ED-4B41-B542-1B5001EF4015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -579,13 +579,19 @@
   </si>
   <si>
     <t>clinic-service/vaccinations</t>
+  </si>
+  <si>
+    <t>queue/kiosk</t>
+  </si>
+  <si>
+    <t>Queue Kiosk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -658,7 +664,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E81" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E82" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
@@ -967,13 +973,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -982,7 +988,7 @@
     <col min="5" max="5" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1153,961 +1159,961 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
         <v>8</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>57</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="D61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="D64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>71</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68">
         <v>17</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
         <v>73</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
       </c>
       <c r="D76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
       </c>
       <c r="D79">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>84</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="D80">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -2116,6 +2122,20 @@
         <v>13</v>
       </c>
       <c r="E81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D30E8-85ED-4B41-B542-1B5001EF4015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD92221-5358-4EA3-88C3-82235C2A4096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,9 +332,6 @@
     <t>clinic-service/procedure-rooms</t>
   </si>
   <si>
-    <t>clinic-service/acccidents</t>
-  </si>
-  <si>
     <t>clinic-service/reporting-and-analytics</t>
   </si>
   <si>
@@ -585,6 +582,9 @@
   </si>
   <si>
     <t>Queue Kiosk</t>
+  </si>
+  <si>
+    <t>clinic-service/accidents</t>
   </si>
 </sst>
 </file>
@@ -976,7 +976,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1058,12 +1058,12 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1072,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1100,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1142,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1156,12 +1156,12 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1184,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1240,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1254,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1352,12 +1352,12 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1436,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1450,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1464,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1478,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1506,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1534,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1562,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1576,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1590,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1604,12 +1604,12 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -1618,12 +1618,12 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1674,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1730,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1744,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1758,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1772,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1814,7 +1814,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1828,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1842,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1856,7 +1856,7 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1870,7 +1870,7 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1884,7 +1884,7 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1898,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1912,7 +1912,7 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1926,12 +1926,12 @@
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
@@ -1940,7 +1940,7 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1968,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1982,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1996,7 +1996,7 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2024,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2038,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2052,7 +2052,7 @@
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2066,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2080,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2094,7 +2094,7 @@
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2108,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2122,12 +2122,12 @@
         <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -2136,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD92221-5358-4EA3-88C3-82235C2A4096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AABEBD-A4C3-41C6-9D61-D59064FA9537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="176">
   <si>
     <t>Name</t>
   </si>
@@ -585,13 +585,19 @@
   </si>
   <si>
     <t>clinic-service/accidents</t>
+  </si>
+  <si>
+    <t>Maternities</t>
+  </si>
+  <si>
+    <t>clinic-service/maternities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -664,7 +670,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E82" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E83" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
@@ -677,7 +683,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -973,13 +979,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -988,7 +994,7 @@
     <col min="5" max="5" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1089,9 +1095,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1100,1034 +1106,1034 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
         <v>8</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>45</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>55</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
         <v>5</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="D63">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>71</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69">
         <v>17</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>73</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>74</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
       </c>
       <c r="D79">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>84</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
       </c>
       <c r="D81">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -2136,6 +2142,20 @@
         <v>13</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AABEBD-A4C3-41C6-9D61-D59064FA9537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B626330-B8AB-4FDD-BE4A-E84CE1B8FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -63,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -591,13 +580,19 @@
   </si>
   <si>
     <t>clinic-service/maternities</t>
+  </si>
+  <si>
+    <t>clinic-service/wellness</t>
+  </si>
+  <si>
+    <t>Wellness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -670,7 +665,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E83" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E84" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
@@ -979,13 +974,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -994,7 +989,7 @@
     <col min="5" max="5" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1025,7 +1020,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1039,7 +1034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1053,7 +1048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -1067,7 +1062,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -1081,7 +1076,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1090,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -1109,9 +1104,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1120,1034 +1115,1034 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
         <v>8</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
         <v>5</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="D64">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>71</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70">
         <v>17</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>74</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="D80">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
       </c>
       <c r="D81">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>84</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
       </c>
       <c r="D82">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
@@ -2156,6 +2151,20 @@
         <v>13</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Configurations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B626330-B8AB-4FDD-BE4A-E84CE1B8FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCBABB-D78F-420A-B7F7-3A3C6106297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,12 +543,6 @@
     <t>Disease History</t>
   </si>
   <si>
-    <t>inventory/maintainance</t>
-  </si>
-  <si>
-    <t>inventory/maintainance-records</t>
-  </si>
-  <si>
     <t>Maintenance Records</t>
   </si>
   <si>
@@ -586,6 +580,12 @@
   </si>
   <si>
     <t>Wellness</t>
+  </si>
+  <si>
+    <t>inventory/maintenance</t>
+  </si>
+  <si>
+    <t>inventory/maintenance-records</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1059,12 +1059,12 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1087,12 +1087,12 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1101,12 +1101,12 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1115,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1190,7 +1190,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1638,7 +1638,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -1647,12 +1647,12 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -1661,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:5">

--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -1,47 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCBABB-D78F-420A-B7F7-3A3C6106297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Anonymous</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t>Mandatory</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t>Mandatory</t>
         </r>
@@ -52,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -69,554 +78,912 @@
     <t>URL</t>
   </si>
   <si>
+    <t>General Consultation Services</t>
+  </si>
+  <si>
     <t>Clinic Service</t>
   </si>
   <si>
+    <t>clinic-service/general-consultation-services</t>
+  </si>
+  <si>
+    <t>Medical Checkups</t>
+  </si>
+  <si>
+    <t>clinic-service/medical-checkups</t>
+  </si>
+  <si>
+    <t>Procedure Rooms</t>
+  </si>
+  <si>
+    <t>clinic-service/procedure-rooms</t>
+  </si>
+  <si>
+    <t>Telemedicine</t>
+  </si>
+  <si>
+    <t>clinic-service/telemedicines</t>
+  </si>
+  <si>
+    <t>Vaccination</t>
+  </si>
+  <si>
+    <t>clinic-service/vaccinations</t>
+  </si>
+  <si>
+    <t>Accidents</t>
+  </si>
+  <si>
+    <t>clinic-service/accidents</t>
+  </si>
+  <si>
+    <t>Maternities</t>
+  </si>
+  <si>
+    <t>clinic-service/maternities</t>
+  </si>
+  <si>
+    <t>Wellness</t>
+  </si>
+  <si>
+    <t>clinic-service/wellness</t>
+  </si>
+  <si>
+    <t>Reporting And Analytics</t>
+  </si>
+  <si>
+    <t>clinic-service/reporting-and-analytics</t>
+  </si>
+  <si>
+    <t>Queue Counters</t>
+  </si>
+  <si>
     <t xml:space="preserve">Queue </t>
   </si>
   <si>
+    <t>queue/queue-counters</t>
+  </si>
+  <si>
+    <t>Queue Displays</t>
+  </si>
+  <si>
+    <t>queue/queue-displays</t>
+  </si>
+  <si>
+    <t>Kiosk Departments</t>
+  </si>
+  <si>
+    <t>queue/kiosk-departments</t>
+  </si>
+  <si>
+    <t>Kiosk Configurations</t>
+  </si>
+  <si>
+    <t>queue/kiosk-configurations</t>
+  </si>
+  <si>
+    <t>Queue Kiosk</t>
+  </si>
+  <si>
+    <t>queue/kiosk</t>
+  </si>
+  <si>
+    <t>BPJS Classifications</t>
+  </si>
+  <si>
     <t>BPJS</t>
   </si>
   <si>
+    <t>bpjs/bpjs-classifications</t>
+  </si>
+  <si>
+    <t>System Parameters</t>
+  </si>
+  <si>
+    <t>bpjs/system-parameters</t>
+  </si>
+  <si>
+    <t>Physicians</t>
+  </si>
+  <si>
     <t>BPJS Configuration</t>
   </si>
   <si>
+    <t>bpjs-integration/physicians</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>bpjs-integration/services</t>
+  </si>
+  <si>
+    <t>Medical Procedures</t>
+  </si>
+  <si>
+    <t>bpjs-integration/medical-procedures</t>
+  </si>
+  <si>
+    <t>Awareness</t>
+  </si>
+  <si>
+    <t>bpjs-integration/awareness</t>
+  </si>
+  <si>
+    <t>Diagnoses</t>
+  </si>
+  <si>
+    <t>bpjs-integration/diagnoses</t>
+  </si>
+  <si>
+    <t>Providers</t>
+  </si>
+  <si>
+    <t>bpjs-integration/providers</t>
+  </si>
+  <si>
+    <t>Allergies</t>
+  </si>
+  <si>
+    <t>bpjs-integration/allergies</t>
+  </si>
+  <si>
+    <t>Drugs</t>
+  </si>
+  <si>
+    <t>bpjs-integration/drugs</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
     <t>Patient</t>
   </si>
   <si>
+    <t>patient/patients</t>
+  </si>
+  <si>
+    <t>Family Relations</t>
+  </si>
+  <si>
+    <t>patient/family-relations</t>
+  </si>
+  <si>
+    <t>Insurance Policies</t>
+  </si>
+  <si>
+    <t>patient/insurance-policies</t>
+  </si>
+  <si>
+    <t>Disease History</t>
+  </si>
+  <si>
+    <t>patient/disease-history</t>
+  </si>
+  <si>
+    <t>Prescriptions</t>
+  </si>
+  <si>
     <t>Pharmacy</t>
   </si>
   <si>
+    <t>pharmacy/presciptions</t>
+  </si>
+  <si>
+    <t>Medicament Groups</t>
+  </si>
+  <si>
+    <t>pharmacy/medicament-groups</t>
+  </si>
+  <si>
+    <t>Signas</t>
+  </si>
+  <si>
+    <t>pharmacy/signas</t>
+  </si>
+  <si>
+    <t>Medicine Dosages</t>
+  </si>
+  <si>
+    <t>pharmacy/medicine-dosages</t>
+  </si>
+  <si>
+    <t>Active Components</t>
+  </si>
+  <si>
+    <t>pharmacy/active-components</t>
+  </si>
+  <si>
+    <t>Drug Forms</t>
+  </si>
+  <si>
+    <t>pharmacy/drug-forms</t>
+  </si>
+  <si>
+    <t>Drug Routes</t>
+  </si>
+  <si>
+    <t>pharmacy/drug-routes</t>
+  </si>
+  <si>
+    <t>Reporting Pharmacy</t>
+  </si>
+  <si>
+    <t>pharmacy/reporting-pharmacy</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
     <t>Inventory</t>
   </si>
   <si>
+    <t>inventory/products</t>
+  </si>
+  <si>
+    <t>Product Categories</t>
+  </si>
+  <si>
+    <t>inventory/product-categories</t>
+  </si>
+  <si>
+    <t>Inventory Adjustments</t>
+  </si>
+  <si>
+    <t>inventory/inventory-adjusments</t>
+  </si>
+  <si>
+    <t>Internal Transfers</t>
+  </si>
+  <si>
+    <t>inventory/internal-transfers</t>
+  </si>
+  <si>
+    <t>Goods Receipts</t>
+  </si>
+  <si>
+    <t>inventory/goods-receipts</t>
+  </si>
+  <si>
+    <t>UOM Categories</t>
+  </si>
+  <si>
+    <t>inventory/uom-categories</t>
+  </si>
+  <si>
+    <t>UOMs</t>
+  </si>
+  <si>
+    <t>inventory/uoms</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>inventory/locations</t>
+  </si>
+  <si>
+    <t>Reporting Inventories</t>
+  </si>
+  <si>
+    <t>inventory/reporting-inventories</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>inventory/maintenance</t>
+  </si>
+  <si>
+    <t>Maintenance Records</t>
+  </si>
+  <si>
+    <t>inventory/maintenance-records</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
     <t>Employee</t>
   </si>
   <si>
+    <t>employee/employees</t>
+  </si>
+  <si>
+    <t>Sick Leave Managements</t>
+  </si>
+  <si>
+    <t>employee/sick-leave-managements</t>
+  </si>
+  <si>
+    <t>Claim Managements</t>
+  </si>
+  <si>
+    <t>employee/claim-managements</t>
+  </si>
+  <si>
+    <t>Departments</t>
+  </si>
+  <si>
+    <t>employee/departments</t>
+  </si>
+  <si>
+    <t>Job Positions</t>
+  </si>
+  <si>
+    <t>employee/job-positions</t>
+  </si>
+  <si>
+    <t>Practitioners</t>
+  </si>
+  <si>
     <t>Medical</t>
   </si>
   <si>
+    <t>medical/practitioners</t>
+  </si>
+  <si>
+    <t>Doctor Schedules</t>
+  </si>
+  <si>
+    <t>medical/doctor-schedules</t>
+  </si>
+  <si>
+    <t>Doctor Schedule Slots</t>
+  </si>
+  <si>
+    <t>medical/doctor-schedule-slots</t>
+  </si>
+  <si>
+    <t>Insurances</t>
+  </si>
+  <si>
+    <t>medical/insurances</t>
+  </si>
+  <si>
+    <t>Specialities</t>
+  </si>
+  <si>
+    <t>medical/specialities</t>
+  </si>
+  <si>
+    <t>medical/diagnoses</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>medical/procedures</t>
+  </si>
+  <si>
+    <t>Disease Categories</t>
+  </si>
+  <si>
+    <t>medical/disease-categories</t>
+  </si>
+  <si>
+    <t>Chronic Diagnoses</t>
+  </si>
+  <si>
+    <t>medical/chronic-diagnoses</t>
+  </si>
+  <si>
+    <t>Health Centers</t>
+  </si>
+  <si>
+    <t>medical/health-centers</t>
+  </si>
+  <si>
+    <t>Building And Locations</t>
+  </si>
+  <si>
+    <t>medical/building-and-locations</t>
+  </si>
+  <si>
+    <t>medical/services</t>
+  </si>
+  <si>
+    <t>Nursing Diagnoses</t>
+  </si>
+  <si>
+    <t>medical/nursing-diagnoses</t>
+  </si>
+  <si>
+    <t>Lab Tests</t>
+  </si>
+  <si>
+    <t>medical/lab-tests</t>
+  </si>
+  <si>
+    <t>Sample Types</t>
+  </si>
+  <si>
+    <t>medical/sample-types</t>
+  </si>
+  <si>
+    <t>UOM Labs</t>
+  </si>
+  <si>
+    <t>medical/lab-uoms</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>medical/projects</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
     <t>Configuration</t>
   </si>
   <si>
-    <t>General Consultation Services</t>
-  </si>
-  <si>
-    <t>Medical Checkups</t>
-  </si>
-  <si>
-    <t>Procedure Rooms</t>
-  </si>
-  <si>
-    <t>Accidents</t>
-  </si>
-  <si>
-    <t>Reporting And Analytics</t>
-  </si>
-  <si>
-    <t>Queue Counters</t>
-  </si>
-  <si>
-    <t>Queue Displays</t>
-  </si>
-  <si>
-    <t>Kiosk Departments</t>
-  </si>
-  <si>
-    <t>Kiosk Configurations</t>
-  </si>
-  <si>
-    <t>BPJS Classifications</t>
-  </si>
-  <si>
-    <t>System Parameters</t>
-  </si>
-  <si>
-    <t>Physicians</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Medical Procedures</t>
-  </si>
-  <si>
-    <t>Awareness</t>
-  </si>
-  <si>
-    <t>Diagnoses</t>
-  </si>
-  <si>
-    <t>Providers</t>
-  </si>
-  <si>
-    <t>Allergies</t>
-  </si>
-  <si>
-    <t>Drugs</t>
-  </si>
-  <si>
-    <t>Patients</t>
-  </si>
-  <si>
-    <t>Family Relations</t>
-  </si>
-  <si>
-    <t>Insurance Policies</t>
-  </si>
-  <si>
-    <t>Prescriptions</t>
-  </si>
-  <si>
-    <t>Medicament Groups</t>
-  </si>
-  <si>
-    <t>Signas</t>
-  </si>
-  <si>
-    <t>Medicine Dosages</t>
-  </si>
-  <si>
-    <t>Active Components</t>
-  </si>
-  <si>
-    <t>Drug Forms</t>
-  </si>
-  <si>
-    <t>Drug Routes</t>
-  </si>
-  <si>
-    <t>Reporting Pharmacy</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Product Categories</t>
-  </si>
-  <si>
-    <t>Inventory Adjustments</t>
-  </si>
-  <si>
-    <t>Internal Transfers</t>
-  </si>
-  <si>
-    <t>Goods Receipts</t>
-  </si>
-  <si>
-    <t>UOM Categories</t>
-  </si>
-  <si>
-    <t>UOMs</t>
-  </si>
-  <si>
-    <t>Locations</t>
-  </si>
-  <si>
-    <t>Reporting Inventories</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Sick Leave Managements</t>
-  </si>
-  <si>
-    <t>Claim Managements</t>
-  </si>
-  <si>
-    <t>Departments</t>
-  </si>
-  <si>
-    <t>Job Positions</t>
-  </si>
-  <si>
-    <t>Practitioners</t>
-  </si>
-  <si>
-    <t>Doctor Schedules</t>
-  </si>
-  <si>
-    <t>Doctor Schedule Slots</t>
-  </si>
-  <si>
-    <t>Insurances</t>
-  </si>
-  <si>
-    <t>Specialities</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>Disease Categories</t>
-  </si>
-  <si>
-    <t>Chronic Diagnoses</t>
-  </si>
-  <si>
-    <t>Health Centers</t>
-  </si>
-  <si>
-    <t>Building And Locations</t>
-  </si>
-  <si>
-    <t>Nursing Diagnoses</t>
-  </si>
-  <si>
-    <t>Lab Tests</t>
-  </si>
-  <si>
-    <t>Sample Types</t>
-  </si>
-  <si>
-    <t>UOM Labs</t>
-  </si>
-  <si>
-    <t>Users</t>
+    <t>configuration/users</t>
   </si>
   <si>
     <t>Groups</t>
   </si>
   <si>
+    <t>configuration/groups</t>
+  </si>
+  <si>
     <t>Menus</t>
   </si>
   <si>
+    <t>configuration/menus</t>
+  </si>
+  <si>
     <t>Email Templates</t>
   </si>
   <si>
+    <t>configuration/email-templates</t>
+  </si>
+  <si>
     <t>Email Settings</t>
   </si>
   <si>
+    <t>configuration/email-settings</t>
+  </si>
+  <si>
     <t>Companies</t>
   </si>
   <si>
+    <t>configuration/companies</t>
+  </si>
+  <si>
     <t>Countries</t>
   </si>
   <si>
+    <t>configuration/countries</t>
+  </si>
+  <si>
     <t>Provinces</t>
   </si>
   <si>
+    <t>configuration/provinces</t>
+  </si>
+  <si>
     <t>Cities</t>
   </si>
   <si>
+    <t>configuration/cities</t>
+  </si>
+  <si>
     <t>Districts</t>
   </si>
   <si>
+    <t>configuration/districts</t>
+  </si>
+  <si>
     <t>Sub Districts</t>
   </si>
   <si>
+    <t>configuration/sub-districts</t>
+  </si>
+  <si>
     <t>Religions</t>
   </si>
   <si>
+    <t>configuration/religions</t>
+  </si>
+  <si>
     <t>Occupationals</t>
   </si>
   <si>
-    <t>clinic-service/general-consultation-services</t>
-  </si>
-  <si>
-    <t>clinic-service/medical-checkups</t>
-  </si>
-  <si>
-    <t>clinic-service/procedure-rooms</t>
-  </si>
-  <si>
-    <t>clinic-service/reporting-and-analytics</t>
-  </si>
-  <si>
-    <t>queue/queue-counters</t>
-  </si>
-  <si>
-    <t>queue/queue-displays</t>
-  </si>
-  <si>
-    <t>queue/kiosk-departments</t>
-  </si>
-  <si>
-    <t>queue/kiosk-configurations</t>
-  </si>
-  <si>
-    <t>bpjs/bpjs-classifications</t>
-  </si>
-  <si>
-    <t>bpjs/system-parameters</t>
-  </si>
-  <si>
-    <t>bpjs-integration/physicians</t>
-  </si>
-  <si>
-    <t>bpjs-integration/services</t>
-  </si>
-  <si>
-    <t>bpjs-integration/medical-procedures</t>
-  </si>
-  <si>
-    <t>bpjs-integration/awareness</t>
-  </si>
-  <si>
-    <t>bpjs-integration/diagnoses</t>
-  </si>
-  <si>
-    <t>bpjs-integration/providers</t>
-  </si>
-  <si>
-    <t>bpjs-integration/allergies</t>
-  </si>
-  <si>
-    <t>bpjs-integration/drugs</t>
-  </si>
-  <si>
-    <t>patient/patients</t>
-  </si>
-  <si>
-    <t>patient/family-relations</t>
-  </si>
-  <si>
-    <t>patient/insurance-policies</t>
-  </si>
-  <si>
-    <t>pharmacy/presciptions</t>
-  </si>
-  <si>
-    <t>pharmacy/medicament-groups</t>
-  </si>
-  <si>
-    <t>pharmacy/signas</t>
-  </si>
-  <si>
-    <t>pharmacy/medicine-dosages</t>
-  </si>
-  <si>
-    <t>pharmacy/active-components</t>
-  </si>
-  <si>
-    <t>pharmacy/drug-forms</t>
-  </si>
-  <si>
-    <t>pharmacy/drug-routes</t>
-  </si>
-  <si>
-    <t>pharmacy/reporting-pharmacy</t>
-  </si>
-  <si>
-    <t>inventory/products</t>
-  </si>
-  <si>
-    <t>inventory/product-categories</t>
-  </si>
-  <si>
-    <t>inventory/inventory-adjusments</t>
-  </si>
-  <si>
-    <t>inventory/internal-transfers</t>
-  </si>
-  <si>
-    <t>inventory/goods-receipts</t>
-  </si>
-  <si>
-    <t>inventory/uom-categories</t>
-  </si>
-  <si>
-    <t>inventory/uoms</t>
-  </si>
-  <si>
-    <t>inventory/locations</t>
-  </si>
-  <si>
-    <t>inventory/reporting-inventories</t>
-  </si>
-  <si>
-    <t>employee/employees</t>
-  </si>
-  <si>
-    <t>employee/sick-leave-managements</t>
-  </si>
-  <si>
-    <t>employee/claim-managements</t>
-  </si>
-  <si>
-    <t>employee/departments</t>
-  </si>
-  <si>
-    <t>employee/job-positions</t>
-  </si>
-  <si>
-    <t>medical/practitioners</t>
-  </si>
-  <si>
-    <t>medical/doctor-schedules</t>
-  </si>
-  <si>
-    <t>medical/doctor-schedule-slots</t>
-  </si>
-  <si>
-    <t>medical/insurances</t>
-  </si>
-  <si>
-    <t>medical/specialities</t>
-  </si>
-  <si>
-    <t>medical/diagnoses</t>
-  </si>
-  <si>
-    <t>medical/procedures</t>
-  </si>
-  <si>
-    <t>medical/disease-categories</t>
-  </si>
-  <si>
-    <t>medical/chronic-diagnoses</t>
-  </si>
-  <si>
-    <t>medical/health-centers</t>
-  </si>
-  <si>
-    <t>medical/building-and-locations</t>
-  </si>
-  <si>
-    <t>medical/services</t>
-  </si>
-  <si>
-    <t>medical/nursing-diagnoses</t>
-  </si>
-  <si>
-    <t>medical/lab-tests</t>
-  </si>
-  <si>
-    <t>medical/sample-types</t>
-  </si>
-  <si>
-    <t>configuration/users</t>
-  </si>
-  <si>
-    <t>configuration/groups</t>
-  </si>
-  <si>
-    <t>configuration/menus</t>
-  </si>
-  <si>
-    <t>configuration/email-templates</t>
-  </si>
-  <si>
-    <t>configuration/email-settings</t>
-  </si>
-  <si>
-    <t>configuration/companies</t>
-  </si>
-  <si>
-    <t>configuration/countries</t>
-  </si>
-  <si>
-    <t>configuration/provinces</t>
-  </si>
-  <si>
-    <t>configuration/cities</t>
-  </si>
-  <si>
-    <t>configuration/districts</t>
-  </si>
-  <si>
-    <t>configuration/sub-districts</t>
-  </si>
-  <si>
-    <t>configuration/religions</t>
-  </si>
-  <si>
     <t>configuration/occupationals</t>
   </si>
   <si>
-    <t>medical/lab-uoms</t>
-  </si>
-  <si>
     <t>Occupationals2</t>
   </si>
   <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>medical/projects</t>
-  </si>
-  <si>
-    <t>patient/disease-history</t>
-  </si>
-  <si>
-    <t>Disease History</t>
-  </si>
-  <si>
-    <t>Maintenance Records</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Telemedicine</t>
-  </si>
-  <si>
-    <t>Vaccination</t>
-  </si>
-  <si>
-    <t>clinic-service/telemedicines</t>
-  </si>
-  <si>
-    <t>clinic-service/vaccinations</t>
-  </si>
-  <si>
-    <t>queue/kiosk</t>
-  </si>
-  <si>
-    <t>Queue Kiosk</t>
-  </si>
-  <si>
-    <t>clinic-service/accidents</t>
-  </si>
-  <si>
-    <t>Maternities</t>
-  </si>
-  <si>
-    <t>clinic-service/maternities</t>
-  </si>
-  <si>
-    <t>clinic-service/wellness</t>
-  </si>
-  <si>
-    <t>Wellness</t>
-  </si>
-  <si>
-    <t>inventory/maintenance</t>
-  </si>
-  <si>
-    <t>inventory/maintenance-records</t>
+    <t>Education Program</t>
+  </si>
+  <si>
+    <t>awereness-event/education-program</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>awareness-event/awareness-edu-category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -639,39 +1006,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E84" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table" displayName="Table" ref="A1:E86" headerRowCount="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Parent Icon"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sequence"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="URL"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Parent"/>
+    <tableColumn id="3" name="Parent Icon"/>
+    <tableColumn id="4" name="Sequence"/>
+    <tableColumn id="5" name="URL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -720,7 +1373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -753,26 +1406,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -805,23 +1441,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -963,30 +1582,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.2190476190476" customWidth="1"/>
+    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="32.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="37.7809523809524" customWidth="1"/>
+    <col min="5" max="5" width="38.4380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1008,906 +1622,906 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D36">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D43">
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D44">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D46">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D48">
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D59">
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D60">
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D61">
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D63">
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D64">
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D65">
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D66">
         <v>13</v>
@@ -1918,261 +2532,290 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D67">
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D68">
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D69">
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D70">
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D74">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D76">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D77">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D78">
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D80">
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D81">
         <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D82">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D83">
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D84">
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>156</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Configurations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EFFA5E-160F-41A1-A4C4-3E074939B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Anonymous</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="184">
   <si>
     <t>Name</t>
   </si>
@@ -607,19 +600,19 @@
   </si>
   <si>
     <t>awareness-event/awareness-edu-category</t>
+  </si>
+  <si>
+    <t>Stock Moves</t>
+  </si>
+  <si>
+    <t>inventory/stock-moves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -637,353 +630,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1006,325 +662,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table" displayName="Table" ref="A1:E86" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E87" headerRowCount="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Parent"/>
-    <tableColumn id="3" name="Parent Icon"/>
-    <tableColumn id="4" name="Sequence"/>
-    <tableColumn id="5" name="URL"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Parent Icon"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sequence"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="URL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1582,25 +952,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.2190476190476" customWidth="1"/>
-    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="32.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="37.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="38.4380952380952" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2280,497 +1650,497 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
         <v>107</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
         <v>107</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
         <v>107</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>115</v>
+      <c r="A53" t="s">
+        <v>113</v>
       </c>
       <c r="B53" t="s">
         <v>107</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
         <v>118</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
         <v>118</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
         <v>118</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
         <v>118</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
         <v>118</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
         <v>118</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
         <v>118</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
         <v>118</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
         <v>118</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
         <v>118</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
         <v>118</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
         <v>118</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
         <v>118</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>144</v>
+      <c r="A68" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B68" t="s">
         <v>118</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
         <v>118</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
         <v>118</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
         <v>151</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
         <v>151</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
         <v>151</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
         <v>151</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
         <v>151</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
         <v>151</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
         <v>151</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
         <v>151</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B80" t="s">
         <v>151</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
         <v>151</v>
       </c>
       <c r="D81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B82" t="s">
         <v>151</v>
       </c>
       <c r="D82">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="2" t="s">
-        <v>175</v>
+      <c r="A83" t="s">
+        <v>173</v>
       </c>
       <c r="B83" t="s">
         <v>151</v>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>177</v>
+      <c r="A84" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B84" t="s">
         <v>151</v>
@@ -2784,38 +2154,51 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B86" t="s">
         <v>178</v>
       </c>
       <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87">
         <v>2</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Configurations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EFFA5E-160F-41A1-A4C4-3E074939B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE5D4CE-6B2D-46FB-8139-1B2D61B4C78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Mandatory</t>
         </r>
@@ -43,7 +43,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Mandatory</t>
         </r>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="190">
   <si>
     <t>Name</t>
   </si>
@@ -74,15 +74,9 @@
     <t>General Consultation Services</t>
   </si>
   <si>
-    <t>Clinic Service</t>
-  </si>
-  <si>
     <t>clinic-service/general-consultation-services</t>
   </si>
   <si>
-    <t>Medical Checkups</t>
-  </si>
-  <si>
     <t>clinic-service/medical-checkups</t>
   </si>
   <si>
@@ -104,21 +98,12 @@
     <t>clinic-service/vaccinations</t>
   </si>
   <si>
-    <t>Accidents</t>
-  </si>
-  <si>
     <t>clinic-service/accidents</t>
   </si>
   <si>
-    <t>Maternities</t>
-  </si>
-  <si>
     <t>clinic-service/maternities</t>
   </si>
   <si>
-    <t>Wellness</t>
-  </si>
-  <si>
     <t>clinic-service/wellness</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
     <t>Queue Counters</t>
   </si>
   <si>
-    <t xml:space="preserve">Queue </t>
-  </si>
-  <si>
     <t>queue/queue-counters</t>
   </si>
   <si>
@@ -164,9 +146,6 @@
     <t>BPJS Classifications</t>
   </si>
   <si>
-    <t>BPJS</t>
-  </si>
-  <si>
     <t>bpjs/bpjs-classifications</t>
   </si>
   <si>
@@ -248,9 +227,6 @@
     <t>patient/insurance-policies</t>
   </si>
   <si>
-    <t>Disease History</t>
-  </si>
-  <si>
     <t>patient/disease-history</t>
   </si>
   <si>
@@ -260,9 +236,6 @@
     <t>Pharmacy</t>
   </si>
   <si>
-    <t>pharmacy/presciptions</t>
-  </si>
-  <si>
     <t>Medicament Groups</t>
   </si>
   <si>
@@ -410,9 +383,6 @@
     <t>Practitioners</t>
   </si>
   <si>
-    <t>Medical</t>
-  </si>
-  <si>
     <t>medical/practitioners</t>
   </si>
   <si>
@@ -509,9 +479,6 @@
     <t>Users</t>
   </si>
   <si>
-    <t>Configuration</t>
-  </si>
-  <si>
     <t>configuration/users</t>
   </si>
   <si>
@@ -587,12 +554,6 @@
     <t>configuration/occupationals</t>
   </si>
   <si>
-    <t>Occupationals2</t>
-  </si>
-  <si>
-    <t>Education Program</t>
-  </si>
-  <si>
     <t>awereness-event/education-program</t>
   </si>
   <si>
@@ -602,24 +563,75 @@
     <t>awareness-event/awareness-edu-category</t>
   </si>
   <si>
-    <t>Stock Moves</t>
-  </si>
-  <si>
-    <t>inventory/stock-moves</t>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Medical Service</t>
+  </si>
+  <si>
+    <t>Medical Check up</t>
+  </si>
+  <si>
+    <t>Accidents Management</t>
+  </si>
+  <si>
+    <t>Maternity Check up</t>
+  </si>
+  <si>
+    <t>Diseases History</t>
+  </si>
+  <si>
+    <t>Benefit Configuration</t>
+  </si>
+  <si>
+    <t>Claim Request</t>
+  </si>
+  <si>
+    <t>claim-user-management/benefit-configuration</t>
+  </si>
+  <si>
+    <t>claim-user-management/claim-request</t>
+  </si>
+  <si>
+    <t>Education &amp; Awareness Program</t>
+  </si>
+  <si>
+    <t>Education &amp; Awareness</t>
+  </si>
+  <si>
+    <t>Wellness Program</t>
+  </si>
+  <si>
+    <t>Wellness Management</t>
+  </si>
+  <si>
+    <t>BPJS Integrations</t>
+  </si>
+  <si>
+    <t>Medical Configurations</t>
+  </si>
+  <si>
+    <t>Report &amp; Analytic</t>
+  </si>
+  <si>
+    <t>medical/reports</t>
+  </si>
+  <si>
+    <t>System Configuration</t>
+  </si>
+  <si>
+    <t>pharmacy/prescriptions</t>
+  </si>
+  <si>
+    <t>Claim Management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -628,6 +640,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -663,16 +699,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B821CEAD-8B42-4BB7-89CE-465A28B44639}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,7 +727,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E87" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E88" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
@@ -958,16 +997,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.77734375" customWidth="1"/>
     <col min="5" max="5" width="38.44140625" customWidth="1"/>
@@ -992,1206 +1031,1220 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
       <c r="D34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
         <v>92</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
+        <v>175</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" t="s">
-        <v>84</v>
+        <v>176</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D49">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="D54">
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
         <v>118</v>
-      </c>
-      <c r="D63">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D68">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>159</v>
-      </c>
-      <c r="B76" t="s">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>161</v>
-      </c>
-      <c r="B77" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" t="s">
-        <v>151</v>
+        <v>144</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>167</v>
-      </c>
-      <c r="B80" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D80">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
         <v>151</v>
-      </c>
-      <c r="D81">
-        <v>10</v>
-      </c>
-      <c r="E81" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>171</v>
-      </c>
-      <c r="B82" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>173</v>
-      </c>
-      <c r="B83" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B84" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D84">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>177</v>
-      </c>
-      <c r="B85" t="s">
-        <v>151</v>
+        <v>158</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D85">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86" t="s">
-        <v>178</v>
+        <v>160</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>180</v>
-      </c>
-      <c r="B87" t="s">
-        <v>178</v>
+        <v>162</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>181</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Import/Configurations/menu_template.xlsx
+++ b/Import/Configurations/menu_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE5D4CE-6B2D-46FB-8139-1B2D61B4C78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D34BBB-A74A-4468-AE3B-21226F8C43B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="192">
   <si>
     <t>Name</t>
   </si>
@@ -624,6 +624,12 @@
   </si>
   <si>
     <t>Claim Management</t>
+  </si>
+  <si>
+    <t>clinic-service/maternity-anc</t>
+  </si>
+  <si>
+    <t>Maternity ANC</t>
   </si>
 </sst>
 </file>
@@ -727,7 +733,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E88" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E89" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent"/>
@@ -997,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1185,7 +1191,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>170</v>
@@ -1194,12 +1200,12 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>170</v>
@@ -1208,1042 +1214,1056 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
         <v>98</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
         <v>98</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
         <v>98</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
         <v>98</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>188</v>
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
       </c>
       <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>75</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>75</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>75</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>75</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>189</v>
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>178</v>
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
         <v>180</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
         <v>183</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
         <v>183</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
         <v>183</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>42</v>
+      <c r="A54" t="s">
+        <v>40</v>
       </c>
       <c r="B54" t="s">
         <v>183</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
         <v>183</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
         <v>183</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
         <v>183</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>109</v>
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
         <v>184</v>
       </c>
       <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>111</v>
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
         <v>184</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
         <v>184</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
         <v>184</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
         <v>184</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
         <v>184</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
         <v>184</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
         <v>184</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
         <v>184</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
         <v>184</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>36</v>
+      <c r="A69" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B69" t="s">
         <v>184</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
         <v>184</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
         <v>184</v>
       </c>
       <c r="D71">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
         <v>184</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
         <v>184</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
         <v>184</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
         <v>184</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>140</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="2" t="s">
-        <v>156</v>
+      <c r="A84" t="s">
+        <v>154</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>158</v>
+      <c r="A85" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D88">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89">
         <v>13</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>165</v>
       </c>
     </row>
